--- a/natmiOut/OldD4/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>S100a8</t>
   </si>
   <si>
     <t>Tlr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.2539119585644</v>
+        <v>0.06543400000000001</v>
       </c>
       <c r="H2">
-        <v>3.2539119585644</v>
+        <v>0.196302</v>
       </c>
       <c r="I2">
-        <v>0.1178368932754169</v>
+        <v>0.0007225737787795663</v>
       </c>
       <c r="J2">
-        <v>0.1178368932754169</v>
+        <v>0.0007228941990747336</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.0301044441879</v>
+        <v>7.908652666666666</v>
       </c>
       <c r="N2">
-        <v>6.0301044441879</v>
+        <v>23.725958</v>
       </c>
       <c r="O2">
-        <v>0.086655050385735</v>
+        <v>0.1059802478036631</v>
       </c>
       <c r="P2">
-        <v>0.086655050385735</v>
+        <v>0.1086148104297394</v>
       </c>
       <c r="Q2">
-        <v>19.62142896233534</v>
+        <v>0.5174947785906666</v>
       </c>
       <c r="R2">
-        <v>19.62142896233534</v>
+        <v>4.657453007316</v>
       </c>
       <c r="S2">
-        <v>0.01021116192407973</v>
+        <v>7.657854813148769E-05</v>
       </c>
       <c r="T2">
-        <v>0.01021116192407973</v>
+        <v>7.851701639326047E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.2539119585644</v>
+        <v>0.06543400000000001</v>
       </c>
       <c r="H3">
-        <v>3.2539119585644</v>
+        <v>0.196302</v>
       </c>
       <c r="I3">
-        <v>0.1178368932754169</v>
+        <v>0.0007225737787795663</v>
       </c>
       <c r="J3">
-        <v>0.1178368932754169</v>
+        <v>0.0007228941990747336</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.43360833318156</v>
+        <v>10.76975733333333</v>
       </c>
       <c r="N3">
-        <v>9.43360833318156</v>
+        <v>32.309272</v>
       </c>
       <c r="O3">
-        <v>0.135564783827095</v>
+        <v>0.1443206066922968</v>
       </c>
       <c r="P3">
-        <v>0.135564783827095</v>
+        <v>0.1479082721718924</v>
       </c>
       <c r="Q3">
-        <v>30.69613096775225</v>
+        <v>0.7047083013493334</v>
       </c>
       <c r="R3">
-        <v>30.69613096775225</v>
+        <v>6.342374712144</v>
       </c>
       <c r="S3">
-        <v>0.01597453296373836</v>
+        <v>0.0001042822861334125</v>
       </c>
       <c r="T3">
-        <v>0.01597453296373836</v>
+        <v>0.0001069220319482278</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.2539119585644</v>
+        <v>0.06543400000000001</v>
       </c>
       <c r="H4">
-        <v>3.2539119585644</v>
+        <v>0.196302</v>
       </c>
       <c r="I4">
-        <v>0.1178368932754169</v>
+        <v>0.0007225737787795663</v>
       </c>
       <c r="J4">
-        <v>0.1178368932754169</v>
+        <v>0.0007228941990747336</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.7188809057465</v>
+        <v>19.37830233333333</v>
       </c>
       <c r="N4">
-        <v>18.7188809057465</v>
+        <v>58.134907</v>
       </c>
       <c r="O4">
-        <v>0.2689979225178228</v>
+        <v>0.2596797924831069</v>
       </c>
       <c r="P4">
-        <v>0.2689979225178228</v>
+        <v>0.2661351715768666</v>
       </c>
       <c r="Q4">
-        <v>60.90959043015134</v>
+        <v>1.267999834879334</v>
       </c>
       <c r="R4">
-        <v>60.90959043015134</v>
+        <v>11.411998513914</v>
       </c>
       <c r="S4">
-        <v>0.03169787948704155</v>
+        <v>0.0001876378089272122</v>
       </c>
       <c r="T4">
-        <v>0.03169787948704155</v>
+        <v>0.0001923875717026757</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>3.2539119585644</v>
+        <v>0.06543400000000001</v>
       </c>
       <c r="H5">
-        <v>3.2539119585644</v>
+        <v>0.196302</v>
       </c>
       <c r="I5">
-        <v>0.1178368932754169</v>
+        <v>0.0007225737787795663</v>
       </c>
       <c r="J5">
-        <v>0.1178368932754169</v>
+        <v>0.0007228941990747336</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.240613779553</v>
+        <v>31.136893</v>
       </c>
       <c r="N5">
-        <v>30.240613779553</v>
+        <v>93.41067899999999</v>
       </c>
       <c r="O5">
-        <v>0.4345699042225514</v>
+        <v>0.4172513037378061</v>
       </c>
       <c r="P5">
-        <v>0.4345699042225514</v>
+        <v>0.4276237525034073</v>
       </c>
       <c r="Q5">
-        <v>98.40029481161488</v>
+        <v>2.037411456562</v>
       </c>
       <c r="R5">
-        <v>98.40029481161488</v>
+        <v>18.336703109058</v>
       </c>
       <c r="S5">
-        <v>0.05120836742458094</v>
+        <v>0.0003014948512425271</v>
       </c>
       <c r="T5">
-        <v>0.05120836742458094</v>
+        <v>0.0003091267300712827</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>3.2539119585644</v>
+        <v>0.06543400000000001</v>
       </c>
       <c r="H6">
-        <v>3.2539119585644</v>
+        <v>0.196302</v>
       </c>
       <c r="I6">
-        <v>0.1178368932754169</v>
+        <v>0.0007225737787795663</v>
       </c>
       <c r="J6">
-        <v>0.1178368932754169</v>
+        <v>0.0007228941990747336</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.16424782522925</v>
+        <v>5.430231</v>
       </c>
       <c r="N6">
-        <v>5.16424782522925</v>
+        <v>10.860462</v>
       </c>
       <c r="O6">
-        <v>0.07421233904679587</v>
+        <v>0.07276804928312694</v>
       </c>
       <c r="P6">
-        <v>0.07421233904679587</v>
+        <v>0.0497179933180944</v>
       </c>
       <c r="Q6">
-        <v>16.80400775550365</v>
+        <v>0.355321735254</v>
       </c>
       <c r="R6">
-        <v>16.80400775550365</v>
+        <v>2.131930411524</v>
       </c>
       <c r="S6">
-        <v>0.008744951475976341</v>
+        <v>5.258028434492675E-05</v>
       </c>
       <c r="T6">
-        <v>0.008744951475976341</v>
+        <v>3.594084895928681E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>24.3597824296534</v>
+        <v>0.6717523333333334</v>
       </c>
       <c r="H7">
-        <v>24.3597824296534</v>
+        <v>2.015257</v>
       </c>
       <c r="I7">
-        <v>0.882163106724583</v>
+        <v>0.007418018490397309</v>
       </c>
       <c r="J7">
-        <v>0.882163106724583</v>
+        <v>0.007421307958883508</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.0301044441879</v>
+        <v>7.908652666666666</v>
       </c>
       <c r="N7">
-        <v>6.0301044441879</v>
+        <v>23.725958</v>
       </c>
       <c r="O7">
-        <v>0.086655050385735</v>
+        <v>0.1059802478036631</v>
       </c>
       <c r="P7">
-        <v>0.086655050385735</v>
+        <v>0.1086148104297394</v>
       </c>
       <c r="Q7">
-        <v>146.8920322885033</v>
+        <v>5.312655882356222</v>
       </c>
       <c r="R7">
-        <v>146.8920322885033</v>
+        <v>47.813902941206</v>
       </c>
       <c r="S7">
-        <v>0.07644388846165526</v>
+        <v>0.0007861634378244617</v>
       </c>
       <c r="T7">
-        <v>0.07644388846165526</v>
+        <v>0.0008060639570948483</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>24.3597824296534</v>
+        <v>0.6717523333333334</v>
       </c>
       <c r="H8">
-        <v>24.3597824296534</v>
+        <v>2.015257</v>
       </c>
       <c r="I8">
-        <v>0.882163106724583</v>
+        <v>0.007418018490397309</v>
       </c>
       <c r="J8">
-        <v>0.882163106724583</v>
+        <v>0.007421307958883508</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.43360833318156</v>
+        <v>10.76975733333333</v>
       </c>
       <c r="N8">
-        <v>9.43360833318156</v>
+        <v>32.309272</v>
       </c>
       <c r="O8">
-        <v>0.135564783827095</v>
+        <v>0.1443206066922968</v>
       </c>
       <c r="P8">
-        <v>0.135564783827095</v>
+        <v>0.1479082721718924</v>
       </c>
       <c r="Q8">
-        <v>229.8006465228681</v>
+        <v>7.234609618100444</v>
       </c>
       <c r="R8">
-        <v>229.8006465228681</v>
+        <v>65.11148656290401</v>
       </c>
       <c r="S8">
-        <v>0.1195902508633566</v>
+        <v>0.001070572928988816</v>
       </c>
       <c r="T8">
-        <v>0.1195902508633566</v>
+        <v>0.001097672837453973</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>24.3597824296534</v>
+        <v>0.6717523333333334</v>
       </c>
       <c r="H9">
-        <v>24.3597824296534</v>
+        <v>2.015257</v>
       </c>
       <c r="I9">
-        <v>0.882163106724583</v>
+        <v>0.007418018490397309</v>
       </c>
       <c r="J9">
-        <v>0.882163106724583</v>
+        <v>0.007421307958883508</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.7188809057465</v>
+        <v>19.37830233333333</v>
       </c>
       <c r="N9">
-        <v>18.7188809057465</v>
+        <v>58.134907</v>
       </c>
       <c r="O9">
-        <v>0.2689979225178228</v>
+        <v>0.2596797924831069</v>
       </c>
       <c r="P9">
-        <v>0.2689979225178228</v>
+        <v>0.2661351715768666</v>
       </c>
       <c r="Q9">
-        <v>455.9878661905781</v>
+        <v>13.01741980845545</v>
       </c>
       <c r="R9">
-        <v>455.9878661905781</v>
+        <v>117.156778276099</v>
       </c>
       <c r="S9">
-        <v>0.2373000430307812</v>
+        <v>0.001926309502222223</v>
       </c>
       <c r="T9">
-        <v>0.2373000430307812</v>
+        <v>0.001975071066962228</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>24.3597824296534</v>
+        <v>0.6717523333333334</v>
       </c>
       <c r="H10">
-        <v>24.3597824296534</v>
+        <v>2.015257</v>
       </c>
       <c r="I10">
-        <v>0.882163106724583</v>
+        <v>0.007418018490397309</v>
       </c>
       <c r="J10">
-        <v>0.882163106724583</v>
+        <v>0.007421307958883508</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.240613779553</v>
+        <v>31.136893</v>
       </c>
       <c r="N10">
-        <v>30.240613779553</v>
+        <v>93.41067899999999</v>
       </c>
       <c r="O10">
-        <v>0.4345699042225514</v>
+        <v>0.4172513037378061</v>
       </c>
       <c r="P10">
-        <v>0.4345699042225514</v>
+        <v>0.4276237525034073</v>
       </c>
       <c r="Q10">
-        <v>736.6547722090897</v>
+        <v>20.91628052550033</v>
       </c>
       <c r="R10">
-        <v>736.6547722090897</v>
+        <v>188.246524729503</v>
       </c>
       <c r="S10">
-        <v>0.3833615367979704</v>
+        <v>0.003095177886269429</v>
       </c>
       <c r="T10">
-        <v>0.3833615367979704</v>
+        <v>0.003173527557861168</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.6717523333333334</v>
+      </c>
+      <c r="H11">
+        <v>2.015257</v>
+      </c>
+      <c r="I11">
+        <v>0.007418018490397309</v>
+      </c>
+      <c r="J11">
+        <v>0.007421307958883508</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.430231</v>
+      </c>
+      <c r="N11">
+        <v>10.860462</v>
+      </c>
+      <c r="O11">
+        <v>0.07276804928312694</v>
+      </c>
+      <c r="P11">
+        <v>0.0497179933180944</v>
+      </c>
+      <c r="Q11">
+        <v>3.647770344789</v>
+      </c>
+      <c r="R11">
+        <v>21.886622068734</v>
+      </c>
+      <c r="S11">
+        <v>0.0005397947350923783</v>
+      </c>
+      <c r="T11">
+        <v>0.000368972539511291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.924776333333334</v>
+      </c>
+      <c r="H12">
+        <v>17.774329</v>
+      </c>
+      <c r="I12">
+        <v>0.06542604798117814</v>
+      </c>
+      <c r="J12">
+        <v>0.0654550607051676</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>7.908652666666666</v>
+      </c>
+      <c r="N12">
+        <v>23.725958</v>
+      </c>
+      <c r="O12">
+        <v>0.1059802478036631</v>
+      </c>
+      <c r="P12">
+        <v>0.1086148104297394</v>
+      </c>
+      <c r="Q12">
+        <v>46.85699814802022</v>
+      </c>
+      <c r="R12">
+        <v>421.712983332182</v>
+      </c>
+      <c r="S12">
+        <v>0.006933868777859612</v>
+      </c>
+      <c r="T12">
+        <v>0.007109389010158863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.924776333333334</v>
+      </c>
+      <c r="H13">
+        <v>17.774329</v>
+      </c>
+      <c r="I13">
+        <v>0.06542604798117814</v>
+      </c>
+      <c r="J13">
+        <v>0.0654550607051676</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>10.76975733333333</v>
+      </c>
+      <c r="N13">
+        <v>32.309272</v>
+      </c>
+      <c r="O13">
+        <v>0.1443206066922968</v>
+      </c>
+      <c r="P13">
+        <v>0.1479082721718924</v>
+      </c>
+      <c r="Q13">
+        <v>63.80840336427644</v>
+      </c>
+      <c r="R13">
+        <v>574.2756302784881</v>
+      </c>
+      <c r="S13">
+        <v>0.009442326938122952</v>
+      </c>
+      <c r="T13">
+        <v>0.009681344933807666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.924776333333334</v>
+      </c>
+      <c r="H14">
+        <v>17.774329</v>
+      </c>
+      <c r="I14">
+        <v>0.06542604798117814</v>
+      </c>
+      <c r="J14">
+        <v>0.0654550607051676</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>19.37830233333333</v>
+      </c>
+      <c r="N14">
+        <v>58.134907</v>
+      </c>
+      <c r="O14">
+        <v>0.2596797924831069</v>
+      </c>
+      <c r="P14">
+        <v>0.2661351715768666</v>
+      </c>
+      <c r="Q14">
+        <v>114.8121070447115</v>
+      </c>
+      <c r="R14">
+        <v>1033.308963402403</v>
+      </c>
+      <c r="S14">
+        <v>0.01698982256274213</v>
+      </c>
+      <c r="T14">
+        <v>0.01741989381134399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>24.3597824296534</v>
-      </c>
-      <c r="H11">
-        <v>24.3597824296534</v>
-      </c>
-      <c r="I11">
-        <v>0.882163106724583</v>
-      </c>
-      <c r="J11">
-        <v>0.882163106724583</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>5.16424782522925</v>
-      </c>
-      <c r="N11">
-        <v>5.16424782522925</v>
-      </c>
-      <c r="O11">
-        <v>0.07421233904679587</v>
-      </c>
-      <c r="P11">
-        <v>0.07421233904679587</v>
-      </c>
-      <c r="Q11">
-        <v>125.7999534353953</v>
-      </c>
-      <c r="R11">
-        <v>125.7999534353953</v>
-      </c>
-      <c r="S11">
-        <v>0.06546738757081953</v>
-      </c>
-      <c r="T11">
-        <v>0.06546738757081953</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.924776333333334</v>
+      </c>
+      <c r="H15">
+        <v>17.774329</v>
+      </c>
+      <c r="I15">
+        <v>0.06542604798117814</v>
+      </c>
+      <c r="J15">
+        <v>0.0654550607051676</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>31.136893</v>
+      </c>
+      <c r="N15">
+        <v>93.41067899999999</v>
+      </c>
+      <c r="O15">
+        <v>0.4172513037378061</v>
+      </c>
+      <c r="P15">
+        <v>0.4276237525034073</v>
+      </c>
+      <c r="Q15">
+        <v>184.4791267399323</v>
+      </c>
+      <c r="R15">
+        <v>1660.312140659391</v>
+      </c>
+      <c r="S15">
+        <v>0.02729910381855883</v>
+      </c>
+      <c r="T15">
+        <v>0.02799013867908209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.924776333333334</v>
+      </c>
+      <c r="H16">
+        <v>17.774329</v>
+      </c>
+      <c r="I16">
+        <v>0.06542604798117814</v>
+      </c>
+      <c r="J16">
+        <v>0.0654550607051676</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.430231</v>
+      </c>
+      <c r="N16">
+        <v>10.860462</v>
+      </c>
+      <c r="O16">
+        <v>0.07276804928312694</v>
+      </c>
+      <c r="P16">
+        <v>0.0497179933180944</v>
+      </c>
+      <c r="Q16">
+        <v>32.172904113333</v>
+      </c>
+      <c r="R16">
+        <v>193.037424679998</v>
+      </c>
+      <c r="S16">
+        <v>0.004760925883894599</v>
+      </c>
+      <c r="T16">
+        <v>0.003254294270774986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>83.77446300000001</v>
+      </c>
+      <c r="H17">
+        <v>251.323389</v>
+      </c>
+      <c r="I17">
+        <v>0.925103620367683</v>
+      </c>
+      <c r="J17">
+        <v>0.9255138511064722</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>7.908652666666666</v>
+      </c>
+      <c r="N17">
+        <v>23.725958</v>
+      </c>
+      <c r="O17">
+        <v>0.1059802478036631</v>
+      </c>
+      <c r="P17">
+        <v>0.1086148104297394</v>
+      </c>
+      <c r="Q17">
+        <v>662.543130203518</v>
+      </c>
+      <c r="R17">
+        <v>5962.888171831662</v>
+      </c>
+      <c r="S17">
+        <v>0.09804271093063292</v>
+      </c>
+      <c r="T17">
+        <v>0.1005245114880275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>83.77446300000001</v>
+      </c>
+      <c r="H18">
+        <v>251.323389</v>
+      </c>
+      <c r="I18">
+        <v>0.925103620367683</v>
+      </c>
+      <c r="J18">
+        <v>0.9255138511064722</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10.76975733333333</v>
+      </c>
+      <c r="N18">
+        <v>32.309272</v>
+      </c>
+      <c r="O18">
+        <v>0.1443206066922968</v>
+      </c>
+      <c r="P18">
+        <v>0.1479082721718924</v>
+      </c>
+      <c r="Q18">
+        <v>902.230637240312</v>
+      </c>
+      <c r="R18">
+        <v>8120.075735162809</v>
+      </c>
+      <c r="S18">
+        <v>0.1335115157447043</v>
+      </c>
+      <c r="T18">
+        <v>0.1368911545883124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>83.77446300000001</v>
+      </c>
+      <c r="H19">
+        <v>251.323389</v>
+      </c>
+      <c r="I19">
+        <v>0.925103620367683</v>
+      </c>
+      <c r="J19">
+        <v>0.9255138511064722</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>19.37830233333333</v>
+      </c>
+      <c r="N19">
+        <v>58.134907</v>
+      </c>
+      <c r="O19">
+        <v>0.2596797924831069</v>
+      </c>
+      <c r="P19">
+        <v>0.2661351715768666</v>
+      </c>
+      <c r="Q19">
+        <v>1623.406871826647</v>
+      </c>
+      <c r="R19">
+        <v>14610.66184643982</v>
+      </c>
+      <c r="S19">
+        <v>0.2402307161624508</v>
+      </c>
+      <c r="T19">
+        <v>0.2463117875609875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>83.77446300000001</v>
+      </c>
+      <c r="H20">
+        <v>251.323389</v>
+      </c>
+      <c r="I20">
+        <v>0.925103620367683</v>
+      </c>
+      <c r="J20">
+        <v>0.9255138511064722</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>31.136893</v>
+      </c>
+      <c r="N20">
+        <v>93.41067899999999</v>
+      </c>
+      <c r="O20">
+        <v>0.4172513037378061</v>
+      </c>
+      <c r="P20">
+        <v>0.4276237525034073</v>
+      </c>
+      <c r="Q20">
+        <v>2608.476490563459</v>
+      </c>
+      <c r="R20">
+        <v>23476.28841507113</v>
+      </c>
+      <c r="S20">
+        <v>0.3860006916909801</v>
+      </c>
+      <c r="T20">
+        <v>0.3957717060040294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>83.77446300000001</v>
+      </c>
+      <c r="H21">
+        <v>251.323389</v>
+      </c>
+      <c r="I21">
+        <v>0.925103620367683</v>
+      </c>
+      <c r="J21">
+        <v>0.9255138511064722</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.430231</v>
+      </c>
+      <c r="N21">
+        <v>10.860462</v>
+      </c>
+      <c r="O21">
+        <v>0.07276804928312694</v>
+      </c>
+      <c r="P21">
+        <v>0.0497179933180944</v>
+      </c>
+      <c r="Q21">
+        <v>454.914685990953</v>
+      </c>
+      <c r="R21">
+        <v>2729.488115945718</v>
+      </c>
+      <c r="S21">
+        <v>0.06731798583891471</v>
+      </c>
+      <c r="T21">
+        <v>0.0460146914651154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.120417</v>
+      </c>
+      <c r="H22">
+        <v>0.240834</v>
+      </c>
+      <c r="I22">
+        <v>0.001329739381961962</v>
+      </c>
+      <c r="J22">
+        <v>0.000886886030401954</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>7.908652666666666</v>
+      </c>
+      <c r="N22">
+        <v>23.725958</v>
+      </c>
+      <c r="O22">
+        <v>0.1059802478036631</v>
+      </c>
+      <c r="P22">
+        <v>0.1086148104297394</v>
+      </c>
+      <c r="Q22">
+        <v>0.9523362281619999</v>
+      </c>
+      <c r="R22">
+        <v>5.714017368972</v>
+      </c>
+      <c r="S22">
+        <v>0.0001409261092146186</v>
+      </c>
+      <c r="T22">
+        <v>9.632895806489232E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.120417</v>
+      </c>
+      <c r="H23">
+        <v>0.240834</v>
+      </c>
+      <c r="I23">
+        <v>0.001329739381961962</v>
+      </c>
+      <c r="J23">
+        <v>0.000886886030401954</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10.76975733333333</v>
+      </c>
+      <c r="N23">
+        <v>32.309272</v>
+      </c>
+      <c r="O23">
+        <v>0.1443206066922968</v>
+      </c>
+      <c r="P23">
+        <v>0.1479082721718924</v>
+      </c>
+      <c r="Q23">
+        <v>1.296861868808</v>
+      </c>
+      <c r="R23">
+        <v>7.781171212848</v>
+      </c>
+      <c r="S23">
+        <v>0.0001919087943473902</v>
+      </c>
+      <c r="T23">
+        <v>0.0001311777803701414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.120417</v>
+      </c>
+      <c r="H24">
+        <v>0.240834</v>
+      </c>
+      <c r="I24">
+        <v>0.001329739381961962</v>
+      </c>
+      <c r="J24">
+        <v>0.000886886030401954</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>19.37830233333333</v>
+      </c>
+      <c r="N24">
+        <v>58.134907</v>
+      </c>
+      <c r="O24">
+        <v>0.2596797924831069</v>
+      </c>
+      <c r="P24">
+        <v>0.2661351715768666</v>
+      </c>
+      <c r="Q24">
+        <v>2.333477032073</v>
+      </c>
+      <c r="R24">
+        <v>14.000862192438</v>
+      </c>
+      <c r="S24">
+        <v>0.0003453064467644971</v>
+      </c>
+      <c r="T24">
+        <v>0.0002360315658701501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.120417</v>
+      </c>
+      <c r="H25">
+        <v>0.240834</v>
+      </c>
+      <c r="I25">
+        <v>0.001329739381961962</v>
+      </c>
+      <c r="J25">
+        <v>0.000886886030401954</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>31.136893</v>
+      </c>
+      <c r="N25">
+        <v>93.41067899999999</v>
+      </c>
+      <c r="O25">
+        <v>0.4172513037378061</v>
+      </c>
+      <c r="P25">
+        <v>0.4276237525034073</v>
+      </c>
+      <c r="Q25">
+        <v>3.749411244381</v>
+      </c>
+      <c r="R25">
+        <v>22.496467466286</v>
+      </c>
+      <c r="S25">
+        <v>0.0005548354907551332</v>
+      </c>
+      <c r="T25">
+        <v>0.0003792535323633346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.120417</v>
+      </c>
+      <c r="H26">
+        <v>0.240834</v>
+      </c>
+      <c r="I26">
+        <v>0.001329739381961962</v>
+      </c>
+      <c r="J26">
+        <v>0.000886886030401954</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.430231</v>
+      </c>
+      <c r="N26">
+        <v>10.860462</v>
+      </c>
+      <c r="O26">
+        <v>0.07276804928312694</v>
+      </c>
+      <c r="P26">
+        <v>0.0497179933180944</v>
+      </c>
+      <c r="Q26">
+        <v>0.653892126327</v>
+      </c>
+      <c r="R26">
+        <v>2.615568505308</v>
+      </c>
+      <c r="S26">
+        <v>9.676254088032282E-05</v>
+      </c>
+      <c r="T26">
+        <v>4.409419373343561E-05</v>
       </c>
     </row>
   </sheetData>
